--- a/Project-KTXForecasting/Result/Shared_20240707/Forecasting_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240707/Forecasting_전라선.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240707\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7633B91-CB5F-4B70-A642-BF3BF8ADD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC59AD0-28A0-43C8-BB0D-BB9113C6338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,12 +268,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -318,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -335,6 +347,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,23 +360,27 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
@@ -7589,10 +7606,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A357A0FD-010D-412E-AFC7-03A49E5822D9}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7605,21 +7622,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -7631,7 +7648,7 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -8074,24 +8091,24 @@
         <f>Forecasting_주중!D12</f>
         <v>381819.3125</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="9" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="str">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="str">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
@@ -8130,7 +8147,7 @@
         <f>Forecasting_주중!D13</f>
         <v>389194.125</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="12"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NBEATS</v>
@@ -8285,7 +8302,7 @@
         <v>22250.53125</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -8351,7 +8368,7 @@
         <v>25265.140625</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -8417,7 +8434,7 @@
         <v>21658.863486842107</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -8483,7 +8500,7 @@
         <v>24477.435661764706</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -8549,7 +8566,7 @@
         <v>24386.608455882353</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -8615,7 +8632,7 @@
         <v>22479.746710526317</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -8681,7 +8698,7 @@
         <v>27003.53125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -8747,7 +8764,7 @@
         <v>24522.947916666668</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -8812,8 +8829,20 @@
         <f t="shared" si="6"/>
         <v>25263.234375</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R24" s="8">
+        <f>AVERAGE(M24:M35)</f>
+        <v>31778.618256368401</v>
+      </c>
+      <c r="S24" s="8">
+        <f>AVERAGE(O24:O35)</f>
+        <v>17131.385564283806</v>
+      </c>
+      <c r="T24" s="8">
+        <f>AVERAGE(Q24:Q35)</f>
+        <v>27272.720138698525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -8879,7 +8908,7 @@
         <v>28200.99609375</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -8945,7 +8974,7 @@
         <v>27314.46875</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -9011,7 +9040,7 @@
         <v>25781.355902777777</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -9077,7 +9106,7 @@
         <v>27604.044117647059</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -9143,7 +9172,7 @@
         <v>28044.924632352941</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -9209,7 +9238,7 @@
         <v>24812.082236842107</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -9275,7 +9304,7 @@
         <v>30026.193359375</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9557,802 +9586,802 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD174EE-B869-4D43-A8AB-867CB449CB8D}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:N15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.58203125" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.58203125" customWidth="1"/>
+    <col min="8" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.08203125" customWidth="1"/>
+    <col min="12" max="13" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O3" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D4" s="13">
         <f>Forecasting_전체!C2</f>
         <v>733238</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E4" s="13">
         <f>Forecasting_전체!D2</f>
         <v>717939.5</v>
       </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
+      <c r="F4" s="13">
+        <f>E4-D4</f>
         <v>-15298.5</v>
       </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
+      <c r="G4" s="14">
+        <f>F4/D4</f>
         <v>-2.0864303268515814E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H4" s="13">
         <f>Forecasting_주말!C2</f>
         <v>407613</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I4" s="13">
         <f>Forecasting_주말!D2</f>
         <v>419714.625</v>
       </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
+      <c r="J4" s="13">
+        <f>I4-H4</f>
         <v>12101.625</v>
       </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
+      <c r="K4" s="14">
+        <f>J4/H4</f>
         <v>2.9689006484091528E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L4" s="13">
         <f>Forecasting_주중!C2</f>
         <v>325625</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M4" s="13">
         <f>Forecasting_주중!D2</f>
         <v>342253.40625</v>
       </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
+      <c r="N4" s="13">
+        <f>M4-L4</f>
         <v>16628.40625</v>
       </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
+      <c r="O4" s="14">
+        <f>N4/L4</f>
         <v>5.1066122840690981E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D5" s="13">
         <f>Forecasting_전체!C3</f>
         <v>767495</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E5" s="13">
         <f>Forecasting_전체!D3</f>
         <v>737984.625</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+      <c r="F5" s="13">
+        <f t="shared" ref="F5:F15" si="0">E5-D5</f>
         <v>-29510.375</v>
       </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G15" si="1">F5/D5</f>
         <v>-3.8450250490231208E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H5" s="13">
         <f>Forecasting_주말!C3</f>
         <v>354337</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I5" s="13">
         <f>Forecasting_주말!D3</f>
         <v>378045.15625</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J15" si="2">I5-H5</f>
         <v>23708.15625</v>
       </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K15" si="3">J5/H5</f>
         <v>6.6908497419123608E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L5" s="13">
         <f>Forecasting_주중!C3</f>
         <v>413158</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M5" s="13">
         <f>Forecasting_주중!D3</f>
         <v>341750.09375</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N15" si="4">M5-L5</f>
         <v>-71407.90625</v>
       </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+      <c r="O5" s="14">
+        <f t="shared" ref="O5:O15" si="5">N5/L5</f>
         <v>-0.17283437873646401</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D6" s="13">
         <f>Forecasting_전체!C4</f>
         <v>712496</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E6" s="13">
         <f>Forecasting_전체!D4</f>
         <v>714080.375</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>1584.375</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
         <v>2.2236966944375828E-3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H6" s="13">
         <f>Forecasting_주말!C4</f>
         <v>361826</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I6" s="13">
         <f>Forecasting_주말!D4</f>
         <v>350198.15625</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J6" s="13">
         <f t="shared" si="2"/>
         <v>-11627.84375</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K6" s="14">
         <f t="shared" si="3"/>
         <v>-3.213656218734972E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L6" s="13">
         <f>Forecasting_주중!C4</f>
         <v>350670</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M6" s="13">
         <f>Forecasting_주중!D4</f>
         <v>347997.5625</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N6" s="13">
         <f t="shared" si="4"/>
         <v>-2672.4375</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O6" s="14">
         <f t="shared" si="5"/>
         <v>-7.6209470442296177E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D7" s="13">
         <f>Forecasting_전체!C5</f>
         <v>648470</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E7" s="13">
         <f>Forecasting_전체!D5</f>
         <v>720170.75</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>71700.75</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>0.11056910882538899</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H7" s="13">
         <f>Forecasting_주말!C5</f>
         <v>356106</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I7" s="13">
         <f>Forecasting_주말!D5</f>
         <v>360567.96875</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J7" s="13">
         <f t="shared" si="2"/>
         <v>4461.96875</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
         <v>1.252988927454185E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L7" s="13">
         <f>Forecasting_주중!C5</f>
         <v>292364</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M7" s="13">
         <f>Forecasting_주중!D5</f>
         <v>350960.8125</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N7" s="13">
         <f t="shared" si="4"/>
         <v>58596.8125</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O7" s="14">
         <f t="shared" si="5"/>
         <v>0.20042417158063236</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D8" s="13">
         <f>Forecasting_전체!C6</f>
         <v>729354</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E8" s="13">
         <f>Forecasting_전체!D6</f>
         <v>714426.8125</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>-14927.1875</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>-2.04663133402984E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H8" s="13">
         <f>Forecasting_주말!C6</f>
         <v>332612</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I8" s="13">
         <f>Forecasting_주말!D6</f>
         <v>301147.40625</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>-31464.59375</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K8" s="14">
         <f t="shared" si="3"/>
         <v>-9.4598492387526614E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L8" s="13">
         <f>Forecasting_주중!C6</f>
         <v>396742</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M8" s="13">
         <f>Forecasting_주중!D6</f>
         <v>350269.0625</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N8" s="13">
         <f t="shared" si="4"/>
         <v>-46472.9375</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O8" s="14">
         <f t="shared" si="5"/>
         <v>-0.11713641989000409</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D9" s="13">
         <f>Forecasting_전체!C7</f>
         <v>745932</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E9" s="13">
         <f>Forecasting_전체!D7</f>
         <v>721942.5625</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>-23989.4375</v>
       </c>
-      <c r="F8" s="17">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>-3.216035442909005E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H9" s="13">
         <f>Forecasting_주말!C7</f>
         <v>409660</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I9" s="13">
         <f>Forecasting_주말!D7</f>
         <v>386434.3125</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J9" s="13">
         <f t="shared" si="2"/>
         <v>-23225.6875</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K9" s="14">
         <f t="shared" si="3"/>
         <v>-5.6695033686471712E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L9" s="13">
         <f>Forecasting_주중!C7</f>
         <v>336272</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M9" s="13">
         <f>Forecasting_주중!D7</f>
         <v>354627.25</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
         <v>18355.25</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O9" s="14">
         <f t="shared" si="5"/>
         <v>5.4584532759194934E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D10" s="13">
         <f>Forecasting_전체!C8</f>
         <v>840753</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E10" s="13">
         <f>Forecasting_전체!D8</f>
         <v>760817.8125</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>-79935.1875</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
         <v>-9.5075708918077012E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H10" s="13">
         <f>Forecasting_주말!C8</f>
         <v>430802</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I10" s="13">
         <f>Forecasting_주말!D8</f>
         <v>423417.9375</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
         <v>-7384.0625</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K10" s="14">
         <f t="shared" si="3"/>
         <v>-1.7140269775906332E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L10" s="13">
         <f>Forecasting_주중!C8</f>
         <v>409951</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M10" s="13">
         <f>Forecasting_주중!D8</f>
         <v>367159.28125</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N10" s="13">
         <f t="shared" si="4"/>
         <v>-42791.71875</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
         <v>-0.10438252071589044</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D11" s="13">
         <f>Forecasting_전체!C9</f>
         <v>773778</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E11" s="13">
         <f>Forecasting_전체!D9</f>
         <v>770357.0625</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>-3420.9375</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>-4.4210839543124773E-3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="13">
         <f>Forecasting_주말!C9</f>
         <v>394892</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I11" s="13">
         <f>Forecasting_주말!D9</f>
         <v>379029.5</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
         <v>-15862.5</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
         <v>-4.0169210822199486E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L11" s="13">
         <f>Forecasting_주중!C9</f>
         <v>378886</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M11" s="13">
         <f>Forecasting_주중!D9</f>
         <v>373114.96875</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N11" s="13">
         <f t="shared" si="4"/>
         <v>-5771.03125</v>
       </c>
-      <c r="N10" s="17">
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
         <v>-1.5231576912316634E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D12" s="13">
         <f>Forecasting_전체!C10</f>
         <v>805939</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E12" s="13">
         <f>Forecasting_전체!D10</f>
         <v>768675.75</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>-37263.25</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
         <v>-4.6235819336202862E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H12" s="13">
         <f>Forecasting_주말!C10</f>
         <v>457940</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I12" s="13">
         <f>Forecasting_주말!D10</f>
         <v>444373.875</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J12" s="13">
         <f t="shared" si="2"/>
         <v>-13566.125</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K12" s="14">
         <f t="shared" si="3"/>
         <v>-2.9624241166965104E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L12" s="13">
         <f>Forecasting_주중!C10</f>
         <v>347999</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M12" s="13">
         <f>Forecasting_주중!D10</f>
         <v>372208.34375</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N12" s="13">
         <f t="shared" si="4"/>
         <v>24209.34375</v>
       </c>
-      <c r="N11" s="17">
+      <c r="O12" s="14">
         <f t="shared" si="5"/>
         <v>6.9567279647355304E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D13" s="13">
         <f>Forecasting_전체!C11</f>
         <v>732365</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E13" s="13">
         <f>Forecasting_전체!D11</f>
         <v>766095</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>33730</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>4.60562697562008E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H13" s="13">
         <f>Forecasting_주말!C11</f>
         <v>339988</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I13" s="13">
         <f>Forecasting_주말!D11</f>
         <v>318402.96875</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
         <v>-21585.03125</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K13" s="14">
         <f t="shared" si="3"/>
         <v>-6.3487626769180086E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L13" s="13">
         <f>Forecasting_주중!C11</f>
         <v>392377</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M13" s="13">
         <f>Forecasting_주중!D11</f>
         <v>380676.90625</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N13" s="13">
         <f t="shared" si="4"/>
         <v>-11700.09375</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O13" s="14">
         <f t="shared" si="5"/>
         <v>-2.9818500447273924E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D14" s="13">
         <f>Forecasting_전체!C12</f>
         <v>772313</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E14" s="13">
         <f>Forecasting_전체!D12</f>
         <v>771294.875</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>-1018.125</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
         <v>-1.3182802827351088E-3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H14" s="13">
         <f>Forecasting_주말!C12</f>
         <v>361245</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I14" s="13">
         <f>Forecasting_주말!D12</f>
         <v>327304.59375</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J14" s="13">
         <f t="shared" si="2"/>
         <v>-33940.40625</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K14" s="14">
         <f t="shared" si="3"/>
         <v>-9.3953982062035465E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L14" s="13">
         <f>Forecasting_주중!C12</f>
         <v>411068</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M14" s="13">
         <f>Forecasting_주중!D12</f>
         <v>381819.3125</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N14" s="13">
         <f t="shared" si="4"/>
         <v>-29248.6875</v>
       </c>
-      <c r="N13" s="17">
+      <c r="O14" s="14">
         <f t="shared" si="5"/>
         <v>-7.1152917522161782E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D15" s="13">
         <f>Forecasting_전체!C13</f>
         <v>773749</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E15" s="13">
         <f>Forecasting_전체!D13</f>
         <v>796333.625</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>22584.625</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
         <v>2.9188567610426638E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H15" s="13">
         <f>Forecasting_주말!C13</f>
         <v>461647</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I15" s="13">
         <f>Forecasting_주말!D13</f>
         <v>425219.875</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J15" s="13">
         <f t="shared" si="2"/>
         <v>-36427.125</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K15" s="14">
         <f t="shared" si="3"/>
         <v>-7.8906881231763662E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L15" s="13">
         <f>Forecasting_주중!C13</f>
         <v>312102</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M15" s="13">
         <f>Forecasting_주중!D13</f>
         <v>389194.125</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N15" s="13">
         <f t="shared" si="4"/>
         <v>77092.125</v>
       </c>
-      <c r="N14" s="17">
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
         <v>0.24700939116058213</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:O16" si="6">AVERAGE(D4:D15)</f>
         <v>752990.16666666663</v>
       </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
+      <c r="E16" s="15">
+        <f t="shared" si="6"/>
         <v>746676.5625</v>
       </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
+      <c r="F16" s="15">
+        <f t="shared" si="6"/>
         <v>-6313.604166666667</v>
       </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
+      <c r="G16" s="14">
+        <f t="shared" si="6"/>
         <v>-5.9128725944174081E-3</v>
       </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
         <v>389055.66666666669</v>
       </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
+      <c r="I16" s="15">
+        <f t="shared" si="6"/>
         <v>376154.69791666669</v>
       </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
+      <c r="J16" s="15">
+        <f t="shared" si="6"/>
         <v>-12900.96875</v>
       </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
+      <c r="K16" s="14">
+        <f t="shared" si="6"/>
         <v>-3.3132075575970095E-2</v>
       </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
+      <c r="L16" s="15">
+        <f t="shared" si="6"/>
         <v>363934.5</v>
       </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
+      <c r="M16" s="15">
+        <f t="shared" si="6"/>
         <v>362669.26041666669</v>
       </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
+      <c r="N16" s="15">
+        <f t="shared" si="6"/>
         <v>-1265.2395833333333</v>
       </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
+      <c r="O16" s="14">
+        <f t="shared" si="6"/>
         <v>8.7061863933429341E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
